--- a/LLM-HistoricalData.xlsx
+++ b/LLM-HistoricalData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Banwa\Documents\RESEARCH WORK AND PATENTS\WORKING PAPERS\GITHUB REPOSITORIES\LLM-Evolution-Metadata-Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373A4A6F-1C61-4EE9-9845-447A1B20F20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CB2B86-AD1D-4432-A1DE-8B0BBD71D5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C2ABDBC-78BC-4B8E-BC0A-2D64AD85A683}"/>
   </bookViews>
@@ -994,7 +994,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2061,6 +2061,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B00AE45020F33547B7F780CDDCD41EC8" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="966c3ad6a514153134e2633815ac4996">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3f047075-99eb-4061-85c8-a5cb9b0e18af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e892cf9307a3f76ccdc7fbfbda7c4d5d" ns3:_="">
     <xsd:import namespace="3f047075-99eb-4061-85c8-a5cb9b0e18af"/>
@@ -2204,15 +2213,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2220,6 +2220,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{656861FE-66B5-4A15-8568-895DB459A815}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{624A0F0D-064D-43C4-BA9A-259EC1F61D39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2233,14 +2241,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{656861FE-66B5-4A15-8568-895DB459A815}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
